--- a/js_output/script_logs.xlsx
+++ b/js_output/script_logs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1496"/>
+  <dimension ref="A1:G1497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45307,7 +45307,37 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/Frequently-Asked-Questions</t>
+        </is>
+      </c>
+      <c r="C1497" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1497" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1497" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1497" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1497" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/js_output/script_logs.xlsx
+++ b/js_output/script_logs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1497"/>
+  <dimension ref="A1:G1577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45337,7 +45337,2407 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/News/In-the-Spotlight</t>
+        </is>
+      </c>
+      <c r="C1498" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1498" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1498" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1498" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/News/Articles</t>
+        </is>
+      </c>
+      <c r="C1499" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1499" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1499" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/Publications/2022/01/25/Current-US-Military-Uniforms</t>
+        </is>
+      </c>
+      <c r="C1500" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1500" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/About-MHS/OASDHA</t>
+        </is>
+      </c>
+      <c r="C1501" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1501" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1501" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1501" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/Publications/2020/07/31/Vestibular-Ocular-Motor-Screening-VOMS</t>
+        </is>
+      </c>
+      <c r="C1502" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1502" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1502" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/Meeting-References</t>
+        </is>
+      </c>
+      <c r="C1503" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1503" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1503" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/News/Gallery/Photos</t>
+        </is>
+      </c>
+      <c r="C1504" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1504" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1504" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/Warfighter-Brain-Health</t>
+        </is>
+      </c>
+      <c r="C1505" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1505" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1505" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/Reports/2025/02/04/FY25Q1-UFDUR-v8-20250128</t>
+        </is>
+      </c>
+      <c r="C1506" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1506" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/Technology/MHS-GENESIS/Frequently-Asked-Questions/MHS-GENESIS-Patient-Portal</t>
+        </is>
+      </c>
+      <c r="C1507" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1507" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1507" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/Fact-Sheets/2024/03/06/Managing-Headaches-Following-Concussion-Fact-Sheet</t>
+        </is>
+      </c>
+      <c r="C1508" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1508" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1508" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1508" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/Fact-Sheets/2023/06/07/DMHRSi</t>
+        </is>
+      </c>
+      <c r="C1509" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1509" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1509" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/About-MHS/Contact-Us</t>
+        </is>
+      </c>
+      <c r="C1510" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1510" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1510" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1510" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/News/Gallery/Videos/2021/03/03/MHS-Genesis-Patient-Portal-Registration</t>
+        </is>
+      </c>
+      <c r="C1511" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1511" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1511" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1511" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/#</t>
+        </is>
+      </c>
+      <c r="C1512" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1512" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1512" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/DHA-GME</t>
+        </is>
+      </c>
+      <c r="C1513" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1513" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1513" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/DHA-Publications</t>
+        </is>
+      </c>
+      <c r="C1514" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1514" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1514" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/Womens-Health</t>
+        </is>
+      </c>
+      <c r="C1515" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1515" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1515" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/About-MHS</t>
+        </is>
+      </c>
+      <c r="C1516" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1516" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1516" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/Centers-of-Excellence/HCE</t>
+        </is>
+      </c>
+      <c r="C1517" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1517" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1517" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/Reports/2015/03/03/Ethical-Guidelines-and-Practices-for-US-Military-Medical-Professionals</t>
+        </is>
+      </c>
+      <c r="C1518" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1518" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1518" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1518" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/Frequently-Asked-Questions</t>
+        </is>
+      </c>
+      <c r="C1519" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1519" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1519" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1519" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/News/Gallery/Infographics</t>
+        </is>
+      </c>
+      <c r="C1520" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1520" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1520" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/News/Gallery/Dvids-Videos/2024/08/28/video935209</t>
+        </is>
+      </c>
+      <c r="C1521" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1521" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1521" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil</t>
+        </is>
+      </c>
+      <c r="C1522" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1522" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1522" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/#</t>
+        </is>
+      </c>
+      <c r="C1523" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1523" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1523" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/Access-Cost-Quality-and-Safety/Pharmacy-Operations/DOD-PT-Committee</t>
+        </is>
+      </c>
+      <c r="C1524" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1524" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1524" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/Access-Cost-Quality-and-Safety/Information-for-Providers</t>
+        </is>
+      </c>
+      <c r="C1525" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1525" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1525" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/About-MHS/Military-Medical-History/Historical-Timelines</t>
+        </is>
+      </c>
+      <c r="C1526" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1526" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1526" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/MHS-Toolkits/Speakers-Bureau</t>
+        </is>
+      </c>
+      <c r="C1527" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1527" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/News/Gallery/Videos/2021/03/03/MHS-Genesis-Patient-Portal-Registration</t>
+        </is>
+      </c>
+      <c r="C1528" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1528" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1528" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/News/Gallery/Videos</t>
+        </is>
+      </c>
+      <c r="C1529" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1529" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1529" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/MHS-Toolkits/Media-Resources</t>
+        </is>
+      </c>
+      <c r="C1530" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1530" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1530" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/Cancer</t>
+        </is>
+      </c>
+      <c r="C1531" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1531" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1531" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/Publications/2020/07/31/Headache-Impact-Test-HIT6</t>
+        </is>
+      </c>
+      <c r="C1532" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1532" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1532" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/Technology/Support-Areas/MDR-M2-ICD-Functional-References-and-Specification-Documents/MDR-Functional-References-and-Specifications</t>
+        </is>
+      </c>
+      <c r="C1533" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1533" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1533" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/Access-Cost-Quality-and-Safety/TRICARE-Health-Plan/Rates-and-Reimbursement</t>
+        </is>
+      </c>
+      <c r="C1534" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1534" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1534" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/Mens-Health</t>
+        </is>
+      </c>
+      <c r="C1535" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1535" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1535" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1535" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/Publications</t>
+        </is>
+      </c>
+      <c r="C1536" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1536" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1536" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1536" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/FOIA-Documents</t>
+        </is>
+      </c>
+      <c r="C1537" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1537" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1537" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1537" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/News/Gallery/Dvids-Videos/2024/12/09/video946522</t>
+        </is>
+      </c>
+      <c r="C1538" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1538" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1538" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1538" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center</t>
+        </is>
+      </c>
+      <c r="C1539" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1539" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1539" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1539" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/Centers-of-Excellence/HCE</t>
+        </is>
+      </c>
+      <c r="C1540" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1540" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1540" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1540" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/Access-Cost-Quality-and-Safety/Information-for-Providers/TRICARE-Authorized-Providers</t>
+        </is>
+      </c>
+      <c r="C1541" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1541" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1541" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1541" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/Fact-Sheets/2019/04/04/Defense-Medical-Human-Resources-System</t>
+        </is>
+      </c>
+      <c r="C1542" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1542" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1542" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1542" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/Fact-Sheets/2024/03/06/Managing-Headaches-Following-Concussion-Fact-Sheet</t>
+        </is>
+      </c>
+      <c r="C1543" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1543" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1543" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1543" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/Health-Readiness</t>
+        </is>
+      </c>
+      <c r="C1544" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1544" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1544" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/News/Dvids-Articles/2025/01/24/news489623</t>
+        </is>
+      </c>
+      <c r="C1545" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1545" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1545" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/MHS-Toolkits/Toolkits/Reproductive-Health/Walk-In-Contraceptive-Services</t>
+        </is>
+      </c>
+      <c r="C1546" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1546" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1546" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1546" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/Publications/2025/01/30/Pages-2-24-and-2-25-COVID-19-Vaccine-Adult</t>
+        </is>
+      </c>
+      <c r="C1547" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1547" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1547" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/News/Gallery/Dvids-Videos/2024/08/28/video935209</t>
+        </is>
+      </c>
+      <c r="C1548" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1548" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1548" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1548" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/Technology/MHS-GENESIS</t>
+        </is>
+      </c>
+      <c r="C1549" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1549" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1549" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/Forms</t>
+        </is>
+      </c>
+      <c r="C1550" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1550" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1550" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Reference-Center/Frequently-Asked-Questions/MHS-GENESIS-Patient-Portal</t>
+        </is>
+      </c>
+      <c r="C1551" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1551" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1551" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/#content</t>
+        </is>
+      </c>
+      <c r="C1552" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1552" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1552" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/Education-and-Training</t>
+        </is>
+      </c>
+      <c r="C1553" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1553" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1553" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/About-MHS/OASDHA/Defense-Health-Agency/FOIA</t>
+        </is>
+      </c>
+      <c r="C1554" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1554" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1554" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/Military-Health-Topics/Access-Cost-Quality-and-Safety/TRICARE-Health-Plan/Rates-and-Reimbursement/Durable-Medical-Equipment-Prosthetics-Orthotics-and-Supplies</t>
+        </is>
+      </c>
+      <c r="C1555" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1555" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1555" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/News/Gallery/Infographics</t>
+        </is>
+      </c>
+      <c r="C1556" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1556" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1556" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>https://health.mil</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://health.mil -( get None )-&gt; [get] https://health.mil/News/In-the-Spotlight</t>
+        </is>
+      </c>
+      <c r="C1557" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1557" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1557" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>https://nytimes.com</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://nytimes.com -( event Event(onclick, /html/body/div/div[2]/div[2]/main/div/div/div/div/div/div/div[5]/div[2]/div/div/section/a) )-&gt; [event] https://nytimes.com</t>
+        </is>
+      </c>
+      <c r="C1558" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1558" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1558" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>https://forms.gle</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://forms.gle</t>
+        </is>
+      </c>
+      <c r="C1559" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1559" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1559" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, /html/body/header/div/nav/div/ul/li[3]) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1560" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1560" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1560" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, //*[@id="menuIcon"]) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1561" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1561" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1561" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, /html/body/div[5]/a) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1562" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1562" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1562" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, /html/body/header/div/nav/div/ul/li[4]) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1563" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1563" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1563" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, /html/body/div[5]/svg) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1564" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1564" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1564" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, /html/body/header/div/nav/div/ul/li[5]) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1565" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1565" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1565" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, /html/body/a) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1566" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1566" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1566" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, /html/body/div[5]/svg) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1567" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1567" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, /html/body/div[5]/a) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1568" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1568" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1568" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, /html/body/header/div/nav/div/ul/li[3]) )-&gt; [event] https://lencr.org -( event Event(click, /html/body/header/div/nav/div/ul/li[3]) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1569" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1569" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1569" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, /html/body/header/div/nav/div/ul/li[3]) )-&gt; [event] https://lencr.org -( event Event(click, //*[@id="menuIcon"]) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1570" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1570" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1570" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, /html/body/header/div/nav/div/ul/li[3]) )-&gt; [event] https://lencr.org -( event Event(click, /html/body/div[5]/a) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1571" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1571" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1571" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, /html/body/header/div/nav/div/ul/li[3]) )-&gt; [event] https://lencr.org -( event Event(click, /html/body/header/div/nav/div/ul/li[4]) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1572" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1572" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1572" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, /html/body/header/div/nav/div/ul/li[3]) )-&gt; [event] https://lencr.org -( event Event(click, /html/body/div[5]/svg) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1573" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1573" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1573" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, /html/body/header/div/nav/div/ul/li[3]) )-&gt; [event] https://lencr.org -( event Event(click, /html/body/header/div/nav/div/ul/li[5]) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1574" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1574" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1574" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, /html/body/header/div/nav/div/ul/li[3]) )-&gt; [event] https://lencr.org -( event Event(click, /html/body/a) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1575" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1575" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1575" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, /html/body/header/div/nav/div/ul/li[3]) )-&gt; [event] https://lencr.org -( event Event(click, /html/body/div[5]/svg) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1576" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1576" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1576" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>https://lencr.org</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>[get] ROOTREQ -( get None )-&gt; [get] https://lencr.org -( event Event(click, /html/body/header/div/nav/div/ul/li[3]) )-&gt; [event] https://lencr.org -( event Event(click, /html/body/div[5]/a) )-&gt; [event] https://lencr.org</t>
+        </is>
+      </c>
+      <c r="C1577" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E1577" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F1577" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1577" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
